--- a/parser_categorizer/test_csv_files/Capstone 2022 data_income.xlsx
+++ b/parser_categorizer/test_csv_files/Capstone 2022 data_income.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kh882\Documents\CS\demo-agbizlogic\parser_categorizer\test_csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0043E53-6CFE-4F4F-A0BC-A6F06229D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B11C48-BBF3-48F6-B7F6-7226D4D680C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,87 +20,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Employee Wages</t>
-  </si>
-  <si>
-    <t>Owners Salary</t>
-  </si>
-  <si>
-    <t>Postage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>FY End 6/14</t>
   </si>
   <si>
-    <t>Expenses as of June 30</t>
-  </si>
-  <si>
-    <t>Annual Expense</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Prof Services Incl. Fumigation, Hosting</t>
-  </si>
-  <si>
-    <t>Rent($2100  to others Bal to LeCompte)</t>
-  </si>
-  <si>
-    <t>Advertising</t>
-  </si>
-  <si>
-    <t>Insurance Property &amp; Auto</t>
-  </si>
-  <si>
-    <t>Payroll Taxes &amp; Insurance</t>
-  </si>
-  <si>
-    <t>State &amp; Federal Taxes</t>
-  </si>
-  <si>
-    <t>Profit Sharing, Vacations, Bonus</t>
-  </si>
-  <si>
-    <t>Refunds, Interest, Donations, Misc</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Supplies</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Seeds &amp; Plants</t>
-  </si>
-  <si>
-    <t>Fertilizer &amp; Chemicals</t>
-  </si>
-  <si>
-    <t>Licenses, Permits, Fees, Dues</t>
-  </si>
-  <si>
-    <t>Trade Show, Assoc Meeting, Seminars</t>
-  </si>
-  <si>
-    <t>Repairs</t>
-  </si>
-  <si>
-    <t>Bank Fees, Finance Charges, Interest</t>
-  </si>
-  <si>
-    <t>Actual Total Average Cost/Tree</t>
+    <t>General Tree Sales</t>
+  </si>
+  <si>
+    <t>True Fir</t>
+  </si>
+  <si>
+    <t>Noble Fir</t>
+  </si>
+  <si>
+    <t>Douglas Fir</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Spruce</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Hemlock</t>
+  </si>
+  <si>
+    <t>Sequoia &amp; Larch</t>
+  </si>
+  <si>
+    <t>Mahonia</t>
+  </si>
+  <si>
+    <t>Ash, Alder &amp; Oak</t>
+  </si>
+  <si>
+    <t>Misc Nursery stock</t>
+  </si>
+  <si>
+    <t>Misc Deciduous</t>
+  </si>
+  <si>
+    <t>Transplants 2-1 &amp; 3-1</t>
+  </si>
+  <si>
+    <t>Transplants 1-1, P-1, P-2, P/F</t>
+  </si>
+  <si>
+    <t>Anderson Band Pots</t>
+  </si>
+  <si>
+    <t>#1, #2, #3 Gallons</t>
+  </si>
+  <si>
+    <t>Misc Native Shrubs</t>
+  </si>
+  <si>
+    <t>Conifer Plugs</t>
+  </si>
+  <si>
+    <t>Contracted Transplants &amp; Sowing</t>
+  </si>
+  <si>
+    <t>Seed Sales</t>
+  </si>
+  <si>
+    <t>Rented to others: Fields &amp; Coolers</t>
+  </si>
+  <si>
+    <t>Christmas Trees, Wreaths &amp; Greens</t>
+  </si>
+  <si>
+    <t>Trees Purchased for Resale</t>
+  </si>
+  <si>
+    <t>Misc Hardgoods: Zeba, Nets, Bamboo</t>
+  </si>
+  <si>
+    <t>Finance Charges Posted</t>
+  </si>
+  <si>
+    <t>Discounts Given</t>
+  </si>
+  <si>
+    <t>Total Revenues</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Annual Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -136,7 +157,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +376,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -368,198 +389,245 @@
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>401.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>192338.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G6" s="2">
+        <v>158752.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G7" s="2">
+        <v>351835.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G8" s="2">
+        <v>39229.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>43990.239999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G9" s="2">
+        <v>54682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>46360.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G10" s="2">
+        <v>64583.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>70625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G11" s="2">
+        <v>4861.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>10605.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G12" s="2">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>16063.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G13" s="2">
+        <v>40452.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>110694.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="G14" s="2">
+        <v>57614.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>1336.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="G15" s="2">
+        <v>1353.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G16" s="2">
+        <v>19364.259999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
-        <v>23501.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G17" s="2">
+        <v>20201.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <v>22753.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>548366.56999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="G18" s="2">
+        <v>145976.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2">
-        <v>118948.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="G19" s="2">
+        <v>54943.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
-        <v>24686.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>946.93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G20" s="2">
+        <v>4586.8999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <v>119191.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="G21" s="2">
+        <v>224626.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
-        <v>69964.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="G22" s="2">
+        <v>202170.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <v>7530.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="G23" s="2">
+        <v>241285.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <v>1989.22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="G24" s="2">
+        <v>17929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
-        <v>42082.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="G25" s="2">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
-        <v>14837.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G26" s="2">
+        <v>94454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
-        <v>1311373.82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>0.36599999999999999</v>
+      <c r="G27" s="2">
+        <v>47734.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10608.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1710.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-7854.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2047588.09</v>
       </c>
     </row>
   </sheetData>
